--- a/ASP/publishing/publishing/wwwroot/Reports/Климачков Даниил Валентинович_bookings.xlsx
+++ b/ASP/publishing/publishing/wwwroot/Reports/Климачков Даниил Валентинович_bookings.xlsx
@@ -42,7 +42,7 @@
     <t>с 02.05.2023</t>
   </si>
   <si>
-    <t>по 15.05.2023</t>
+    <t>по 04.05.2023</t>
   </si>
   <si>
     <t>№</t>
